--- a/documents/COLEMAN-NETWORK-BID.xlsx
+++ b/documents/COLEMAN-NETWORK-BID.xlsx
@@ -20,18 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
-  <si>
-    <t xml:space="preserve">EULER PREP</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="58">
+  <si>
+    <t xml:space="preserve">COLEMAN – EULER PREP </t>
   </si>
   <si>
     <t xml:space="preserve">NETWORK BID</t>
   </si>
   <si>
-    <t xml:space="preserve">TOTAL BID =</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PURCHASED</t>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL </t>
   </si>
   <si>
     <t xml:space="preserve">GROUP</t>
@@ -49,9 +52,6 @@
     <t xml:space="preserve">COST</t>
   </si>
   <si>
-    <t xml:space="preserve">TOTAL</t>
-  </si>
-  <si>
     <t xml:space="preserve">CLIENT</t>
   </si>
   <si>
@@ -67,7 +67,7 @@
     <t xml:space="preserve">PROCESSOR</t>
   </si>
   <si>
-    <t xml:space="preserve">Intel Core i5-7600K Kaby Lake Quad-Core 3.8 GHz LGA 1151 91W BX80677I57600K Desktop Processor </t>
+    <t xml:space="preserve">Intel Core i5-8500 Coffee Lake 6-Core 3.0 GHz (4.1 GHz Turbo) LGA 1151 (300 Series) 65W BX80684I58500 Desktop Processor Intel UHD Graphics 630</t>
   </si>
   <si>
     <t xml:space="preserve">CASE </t>
@@ -88,12 +88,15 @@
     <t xml:space="preserve">CORSAIR VS Series VS600 (CP-9020119-NA) 600W ATX12V / EPS12V 80 PLUS Certified Active PFC Power Supply </t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t xml:space="preserve">CPU -&gt;</t>
   </si>
   <si>
     <t xml:space="preserve">HARDDRIVE</t>
   </si>
   <si>
+    <t xml:space="preserve">WD 1TB</t>
+  </si>
+  <si>
     <t xml:space="preserve">KEYBOARD</t>
   </si>
   <si>
@@ -136,13 +139,13 @@
     <t xml:space="preserve">TV</t>
   </si>
   <si>
-    <t xml:space="preserve">70" NEC </t>
+    <t xml:space="preserve">70" NEC</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.cdwg.com/product/NEC-E705-70-LED-Display/3558112?pfm=srh</t>
   </si>
   <si>
-    <t xml:space="preserve">CDWG – KCDA</t>
+    <t xml:space="preserve">KCDA CDWG</t>
   </si>
   <si>
     <t xml:space="preserve">WAP POE</t>
@@ -201,7 +204,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -225,8 +228,54 @@
       <family val="0"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lato"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <name val="Lato"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <name val="Lato"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color rgb="FF000000"/>
+      <name val="Lato"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <name val="Cambria"/>
+      <name val="Lato"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="24"/>
+      <name val="Lato"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Lato"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Lato"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -234,12 +283,12 @@
       <u val="single"/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Cambria"/>
+      <name val="Lato"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -248,17 +297,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor rgb="FF993300"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -287,28 +349,72 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -321,6 +427,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFCCFFCC"/>
+      <rgbColor rgb="FFFFFF66"/>
+      <rgbColor rgb="FF99CCFF"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFCC99"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -332,576 +498,625 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G21" activeCellId="0" sqref="G21"/>
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="9.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="7.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="14.43"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+    <row r="1" customFormat="false" ht="31.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="0" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="24.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="E3" s="0" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2" t="n">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" customFormat="false" ht="29.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="8" t="n">
+        <f aca="false">F3</f>
+        <v>29304</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="10" t="n">
         <f aca="false">SUM(F5:F26)</f>
-        <v>29554</v>
-      </c>
-      <c r="G3" s="0" t="s">
+        <v>29304</v>
+      </c>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="1" t="n">
+      <c r="D5" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="E5" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="F5" s="0" t="n">
+      <c r="E5" s="6" t="n">
+        <v>110</v>
+      </c>
+      <c r="F5" s="12" t="n">
         <f aca="false">E5*D5</f>
-        <v>2500</v>
-      </c>
-      <c r="G5" s="3" t="s">
+        <v>2750</v>
+      </c>
+      <c r="G5" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="1" t="n">
+      <c r="D6" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="E6" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="F6" s="0" t="n">
+      <c r="E6" s="6" t="n">
+        <v>200</v>
+      </c>
+      <c r="F6" s="12" t="n">
         <f aca="false">E6*D6</f>
-        <v>5500</v>
-      </c>
-      <c r="G6" s="3" t="s">
+        <v>5000</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1" t="n">
+      <c r="D7" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="6" t="n">
         <v>60</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="12" t="n">
         <f aca="false">E7*D7</f>
         <v>1500</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="1" t="n">
+      <c r="D8" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="E8" s="1" t="n">
+      <c r="E8" s="6" t="n">
         <v>182</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="12" t="n">
         <f aca="false">E8*D8</f>
         <v>4550</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="3"/>
+      <c r="B9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="1" t="n">
+      <c r="D9" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="6" t="n">
         <v>55</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="12" t="n">
         <f aca="false">E9*D9</f>
         <v>1375</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E10" s="1" t="n">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="n">
+        <f aca="false">E10*24</f>
+        <v>14568</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="6" t="n">
         <f aca="false">SUM(E5:E9)</f>
-        <v>617</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>13</v>
+        <v>607</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="1" t="n">
+      <c r="C11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="6" t="n">
         <v>50</v>
       </c>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="6" t="n">
         <v>46</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="12" t="n">
         <f aca="false">E11*D11</f>
         <v>2300</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="1" t="n">
+      <c r="C12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="E12" s="1" t="n">
+      <c r="E12" s="6" t="n">
         <v>22</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="12" t="n">
         <f aca="false">E12*D12</f>
         <v>550</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="1" t="n">
+      <c r="C13" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="12" t="n">
         <f aca="false">E13*D13</f>
         <v>275</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="1" t="n">
+      <c r="C14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="E14" s="1" t="n">
+      <c r="E14" s="6" t="n">
         <v>135</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="12" t="n">
         <f aca="false">E14*D14</f>
         <v>3375</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>13</v>
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="A16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E16" s="4" t="n">
+      <c r="C16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E16" s="13" t="n">
         <v>802</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="12" t="n">
         <f aca="false">E16*D16</f>
         <v>1604</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="A17" s="3"/>
+      <c r="B17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="1" t="n">
+      <c r="C17" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="6" t="n">
         <v>150</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="12" t="n">
         <f aca="false">E17*D17</f>
         <v>900</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>13</v>
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="6" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="A19" s="3"/>
+      <c r="B19" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="1" t="n">
+      <c r="C19" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="6" t="n">
         <v>800</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="12" t="n">
         <f aca="false">E19*D19</f>
         <v>800</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="14.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="G19" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="B20" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="1" t="n">
+      <c r="C20" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D20" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E20" s="1" t="n">
+      <c r="E20" s="6" t="n">
         <v>2850</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20" s="12" t="n">
         <f aca="false">E20*D20</f>
         <v>2850</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>40</v>
+      <c r="G20" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="1"/>
-      <c r="G21" s="3" t="s">
-        <v>13</v>
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="6" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="1" t="s">
+      <c r="A22" s="3"/>
+      <c r="B22" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="E22" s="1" t="n">
+      <c r="C22" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D22" s="6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E22" s="6" t="n">
         <v>100</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22" s="12" t="n">
         <f aca="false">E22*D22</f>
         <v>200</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C23" s="1" t="s">
+      <c r="A23" s="3"/>
+      <c r="B23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="1" t="n">
+      <c r="C23" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="6" t="n">
         <v>165</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23" s="12" t="n">
         <f aca="false">E23*D23</f>
         <v>165</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="A24" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D24" s="1" t="n">
+      <c r="C24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D24" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E24" s="1" t="n">
+      <c r="E24" s="6" t="n">
         <v>210</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24" s="12" t="n">
         <f aca="false">E24*D24</f>
         <v>210</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C25" s="1" t="s">
+      <c r="A25" s="3"/>
+      <c r="B25" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="1" t="n">
+      <c r="C25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E25" s="1" t="n">
+      <c r="E25" s="6" t="n">
         <v>600</v>
       </c>
-      <c r="F25" s="0" t="n">
+      <c r="F25" s="12" t="n">
         <f aca="false">E25*D25</f>
         <v>600</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="A26" s="3"/>
+      <c r="B26" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D26" s="1" t="n">
+      <c r="C26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E26" s="1" t="n">
+      <c r="E26" s="6" t="n">
         <v>300</v>
       </c>
-      <c r="F26" s="0" t="n">
+      <c r="F26" s="12" t="n">
         <f aca="false">E26*D26</f>
         <v>300</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="6" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="5"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="A28" s="3"/>
+      <c r="B28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="3"/>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B29" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D29" s="1" t="n">
+      <c r="C29" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="6" t="n">
         <v>25</v>
       </c>
-      <c r="E29" s="1" t="n">
+      <c r="E29" s="6" t="n">
         <v>800</v>
       </c>
-      <c r="F29" s="0" t="n">
+      <c r="F29" s="12" t="n">
         <f aca="false">E29*D29</f>
         <v>20000</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="G29" s="3"/>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G30" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G31" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="G32" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3"/>
+      <c r="B31" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="1" t="n">
+      <c r="C31" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="E33" s="1" t="n">
+      <c r="E31" s="6" t="n">
         <v>110</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>13</v>
-      </c>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C20" r:id="rId1" display="https://www.cdwg.com/product/NEC-E705-70-LED-Display/3558112?pfm=srh"/>
